--- a/Personal Budget Sheet.xlsx
+++ b/Personal Budget Sheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
@@ -13,13 +13,13 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -131,6 +131,9 @@
   <si>
     <t>Month Year</t>
   </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,6 +218,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,7 +415,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -488,7 +494,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -619,11 +625,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-2102728832"/>
-        <c:axId val="-2102727744"/>
+        <c:axId val="-599969088"/>
+        <c:axId val="-599965824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102728832"/>
+        <c:axId val="-599969088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102727744"/>
+        <c:crossAx val="-599965824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -674,7 +680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102727744"/>
+        <c:axId val="-599965824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +690,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102728832"/>
+        <c:crossAx val="-599969088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -969,7 +975,9 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -983,7 +991,10 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -997,7 +1008,10 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1031,7 +1045,9 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1046,7 +1062,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1061,7 +1080,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1321,7 +1343,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1332,11 +1354,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1498,11 +1520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2102725568"/>
-        <c:axId val="-2102727200"/>
+        <c:axId val="-599968000"/>
+        <c:axId val="-599971808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2102725568"/>
+        <c:axId val="-599968000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,14 +1567,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102727200"/>
+        <c:crossAx val="-599971808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2102727200"/>
+        <c:axId val="-599971808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102725568"/>
+        <c:crossAx val="-599968000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1782,7 +1804,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1861,7 +1883,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2022,17 +2044,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-2102710336"/>
-        <c:axId val="-2102722848"/>
+        <c:axId val="-599962560"/>
+        <c:axId val="-599955488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102710336"/>
+        <c:axId val="-599962560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2069,7 +2091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102722848"/>
+        <c:crossAx val="-599955488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2077,7 +2099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102722848"/>
+        <c:axId val="-599955488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2109,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102710336"/>
+        <c:crossAx val="-599962560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2132,6 +2154,591 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Personal Budget Sheet.xlsx]Pivots!PivotTable1</c:name>
+    <c:fmtId val="8"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Income and Expense Trend</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$S$1:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Income</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$Q$3:$Q$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>01-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>06-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>07-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18-01-2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$S$3:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pivots!$R$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pivots!$Q$3:$Q$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>01-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>06-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>07-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>08-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16-01-2024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18-01-2024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pivots!$R$3:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>577.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>422.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-599964192"/>
+        <c:axId val="-599977248"/>
+      </c:lineChart>
+      <c:valAx>
+        <c:axId val="-599977248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-599964192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="-599964192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-599977248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
@@ -2298,6 +2905,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -4330,8 +4977,579 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="4206240"/>
+          <a:ext cx="6172200" cy="2377440"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3453"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4342,8 +5560,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4353,7 +5571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="617220" y="198120"/>
-          <a:ext cx="7284720" cy="1059180"/>
+          <a:ext cx="7284720" cy="1082040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4412,8 +5630,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4423,7 +5641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="624840" y="1485900"/>
-          <a:ext cx="3642360" cy="3802380"/>
+          <a:ext cx="3642360" cy="2537460"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4486,9 +5704,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4498,7 +5716,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8153400" y="198120"/>
-          <a:ext cx="5867400" cy="1973580"/>
+          <a:ext cx="6172200" cy="3825240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4553,9 +5771,9 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4566,7 +5784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4511040" y="1478280"/>
-          <a:ext cx="3390900" cy="3825240"/>
+          <a:ext cx="3413760" cy="2545080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4622,16 +5840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4640,8 +5858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8161020" y="2392680"/>
-          <a:ext cx="5867400" cy="2918460"/>
+          <a:off x="609600" y="4206240"/>
+          <a:ext cx="7315200" cy="2377440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5151,14 +6369,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5180,15 +6398,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5210,15 +6428,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5239,15 +6457,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5267,6 +6485,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5277,7 +6525,20 @@
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-01-19T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-01-19T00:00:00" count="12">
+        <d v="2024-01-01T00:00:00"/>
+        <d v="2024-01-04T00:00:00"/>
+        <d v="2024-01-06T00:00:00"/>
+        <d v="2024-01-07T00:00:00"/>
+        <d v="2024-01-08T00:00:00"/>
+        <d v="2024-01-10T00:00:00"/>
+        <d v="2024-01-11T00:00:00"/>
+        <d v="2024-01-13T00:00:00"/>
+        <d v="2024-01-14T00:00:00"/>
+        <d v="2024-01-15T00:00:00"/>
+        <d v="2024-01-16T00:00:00"/>
+        <d v="2024-01-18T00:00:00"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Transaction Type" numFmtId="0">
       <sharedItems count="2">
@@ -5349,7 +6610,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
   <r>
-    <d v="2024-01-01T00:00:00"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5360,7 +6621,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-01T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
@@ -5371,7 +6632,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-04T00:00:00"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
@@ -5382,7 +6643,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-04T00:00:00"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
@@ -5393,7 +6654,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-06T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="0"/>
     <x v="1"/>
@@ -5404,7 +6665,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-06T00:00:00"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
@@ -5415,7 +6676,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-07T00:00:00"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="3"/>
     <x v="4"/>
@@ -5426,7 +6687,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-07T00:00:00"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
@@ -5437,7 +6698,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-07T00:00:00"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
@@ -5448,7 +6709,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-08T00:00:00"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="4"/>
     <x v="5"/>
@@ -5459,7 +6720,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-10T00:00:00"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="1"/>
     <x v="6"/>
@@ -5470,7 +6731,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-10T00:00:00"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
@@ -5481,7 +6742,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-10T00:00:00"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="3"/>
     <x v="4"/>
@@ -5492,7 +6753,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-11T00:00:00"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="1"/>
     <x v="7"/>
@@ -5503,7 +6764,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-11T00:00:00"/>
+    <x v="6"/>
     <x v="0"/>
     <x v="2"/>
     <x v="8"/>
@@ -5514,7 +6775,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-13T00:00:00"/>
+    <x v="7"/>
     <x v="0"/>
     <x v="5"/>
     <x v="9"/>
@@ -5525,7 +6786,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-14T00:00:00"/>
+    <x v="8"/>
     <x v="0"/>
     <x v="2"/>
     <x v="0"/>
@@ -5536,7 +6797,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-15T00:00:00"/>
+    <x v="9"/>
     <x v="0"/>
     <x v="3"/>
     <x v="10"/>
@@ -5547,7 +6808,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-16T00:00:00"/>
+    <x v="10"/>
     <x v="0"/>
     <x v="6"/>
     <x v="11"/>
@@ -5558,7 +6819,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-18T00:00:00"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="5"/>
     <x v="12"/>
@@ -5569,7 +6830,7 @@
     <s v="January 2024"/>
   </r>
   <r>
-    <d v="2024-01-18T00:00:00"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
@@ -5583,198 +6844,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N3:N4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="5" baseField="0" baseItem="1715755590" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L3:L4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="5" baseField="0" baseItem="1715755590" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="G3:H15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="16">
-        <item x="11"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="5" showDataAs="percentOfTotal" baseField="3" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="D3:E7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5874,8 +6944,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5944,6 +7014,329 @@
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+  <location ref="Q1:T15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N3:N4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="5" baseField="0" baseItem="1715755590" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L3:L4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="5" baseField="0" baseItem="1715755590" numFmtId="164"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="G3:H15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="11"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="5" showDataAs="percentOfTotal" baseField="3" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6276,7 +7669,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6998,23 +8391,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7030,9 +8424,13 @@
     <col min="13" max="13" width="9.33203125" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.88671875" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -7057,9 +8455,28 @@
       <c r="O1" t="s">
         <v>6</v>
       </c>
+      <c r="Q1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -7087,8 +8504,20 @@
       <c r="N3" t="s">
         <v>27</v>
       </c>
+      <c r="Q3" s="12">
+        <v>45292</v>
+      </c>
+      <c r="R3" s="10">
+        <v>135</v>
+      </c>
+      <c r="S3" s="10">
+        <v>140</v>
+      </c>
+      <c r="T3" s="10">
+        <v>275</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -7117,8 +8546,18 @@
       <c r="N4" s="1">
         <v>6588.92</v>
       </c>
+      <c r="Q4" s="12">
+        <v>45295</v>
+      </c>
+      <c r="R4" s="10">
+        <v>339</v>
+      </c>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10">
+        <v>339</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -7137,8 +8576,20 @@
       <c r="H5" s="8">
         <v>3.0353988210510977E-3</v>
       </c>
+      <c r="Q5" s="12">
+        <v>45297</v>
+      </c>
+      <c r="R5" s="10">
+        <v>200</v>
+      </c>
+      <c r="S5" s="10">
+        <v>210</v>
+      </c>
+      <c r="T5" s="10">
+        <v>410</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -7157,8 +8608,18 @@
       <c r="H6" s="8">
         <v>0.15746131384202569</v>
       </c>
+      <c r="Q6" s="12">
+        <v>45298</v>
+      </c>
+      <c r="R6" s="10">
+        <v>577.5</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
+        <v>577.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -7177,8 +8638,18 @@
       <c r="H7" s="8">
         <v>0.17650844144412134</v>
       </c>
+      <c r="Q7" s="12">
+        <v>45299</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10">
+        <v>25000</v>
+      </c>
+      <c r="T7" s="10">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -7191,8 +8662,18 @@
       <c r="H8" s="8">
         <v>4.8933664394164751E-2</v>
       </c>
+      <c r="Q8" s="12">
+        <v>45301</v>
+      </c>
+      <c r="R8" s="10">
+        <v>1298</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10">
+        <v>1298</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -7205,8 +8686,18 @@
       <c r="H9" s="8">
         <v>3.3389387031562079E-2</v>
       </c>
+      <c r="Q9" s="12">
+        <v>45302</v>
+      </c>
+      <c r="R9" s="10">
+        <v>1183</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10">
+        <v>1183</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -7219,45 +8710,107 @@
       <c r="H10" s="8">
         <v>3.0202218269458424E-2</v>
       </c>
+      <c r="Q10" s="12">
+        <v>45304</v>
+      </c>
+      <c r="R10" s="10">
+        <v>1739</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10">
+        <v>1739</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="8">
         <v>3.1719917679983972E-2</v>
       </c>
+      <c r="Q11" s="12">
+        <v>45305</v>
+      </c>
+      <c r="R11" s="10">
+        <v>396</v>
+      </c>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10">
+        <v>396</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="8">
         <v>0.10031993103573879</v>
       </c>
+      <c r="Q12" s="12">
+        <v>45306</v>
+      </c>
+      <c r="R12" s="10">
+        <v>199</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10">
+        <v>199</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="8">
         <v>0.26392792749039296</v>
       </c>
+      <c r="Q13" s="12">
+        <v>45307</v>
+      </c>
+      <c r="R13" s="10">
+        <v>100</v>
+      </c>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="8">
         <v>0.13932480588624538</v>
       </c>
+      <c r="Q14" s="12">
+        <v>45309</v>
+      </c>
+      <c r="R14" s="10">
+        <v>422.42</v>
+      </c>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10">
+        <v>422.42</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="8">
         <v>1</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="10">
+        <v>6588.92</v>
+      </c>
+      <c r="S15" s="10">
+        <v>25350</v>
+      </c>
+      <c r="T15" s="10">
+        <v>31938.92</v>
       </c>
     </row>
   </sheetData>
